--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8217.112871366448</v>
+        <v>8404.488335702881</v>
       </c>
       <c r="AB2" t="n">
-        <v>11243.01634403918</v>
+        <v>11499.39172076638</v>
       </c>
       <c r="AC2" t="n">
-        <v>10169.9986438362</v>
+        <v>10401.90591443365</v>
       </c>
       <c r="AD2" t="n">
-        <v>8217112.871366447</v>
+        <v>8404488.335702881</v>
       </c>
       <c r="AE2" t="n">
-        <v>11243016.34403918</v>
+        <v>11499391.72076638</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.622385836057876e-07</v>
+        <v>9.504922217282046e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.04027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>10169998.6438362</v>
+        <v>10401905.91443365</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2738.46003916356</v>
+        <v>2842.434289008776</v>
       </c>
       <c r="AB3" t="n">
-        <v>3746.881837914218</v>
+        <v>3889.143993572619</v>
       </c>
       <c r="AC3" t="n">
-        <v>3389.284694085231</v>
+        <v>3517.969549273778</v>
       </c>
       <c r="AD3" t="n">
-        <v>2738460.03916356</v>
+        <v>2842434.289008776</v>
       </c>
       <c r="AE3" t="n">
-        <v>3746881.837914218</v>
+        <v>3889143.993572619</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.78704375678323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.16805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>3389284.694085232</v>
+        <v>3517969.549273778</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2081.664907209947</v>
+        <v>2164.895529500573</v>
       </c>
       <c r="AB4" t="n">
-        <v>2848.225762618854</v>
+        <v>2962.105571912796</v>
       </c>
       <c r="AC4" t="n">
-        <v>2576.395093344475</v>
+        <v>2679.406373470719</v>
       </c>
       <c r="AD4" t="n">
-        <v>2081664.907209947</v>
+        <v>2164895.529500572</v>
       </c>
       <c r="AE4" t="n">
-        <v>2848225.762618854</v>
+        <v>2962105.571912796</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.239871749368341e-06</v>
+        <v>2.096064710033215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.34027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2576395.093344475</v>
+        <v>2679406.373470719</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1816.850744927279</v>
+        <v>1889.752223867896</v>
       </c>
       <c r="AB5" t="n">
-        <v>2485.895343007398</v>
+        <v>2585.642362680214</v>
       </c>
       <c r="AC5" t="n">
-        <v>2248.644980446799</v>
+        <v>2338.872284557862</v>
       </c>
       <c r="AD5" t="n">
-        <v>1816850.744927279</v>
+        <v>1889752.223867896</v>
       </c>
       <c r="AE5" t="n">
-        <v>2485895.343007398</v>
+        <v>2585642.362680214</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.336593124804418e-06</v>
+        <v>2.259576994155114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.15972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2248644.980446799</v>
+        <v>2338872.284557862</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1660.829392310838</v>
+        <v>1733.816122597475</v>
       </c>
       <c r="AB6" t="n">
-        <v>2272.420045181296</v>
+        <v>2372.283709506762</v>
       </c>
       <c r="AC6" t="n">
-        <v>2055.543465430758</v>
+        <v>2145.876281792534</v>
       </c>
       <c r="AD6" t="n">
-        <v>1660829.392310838</v>
+        <v>1733816.122597476</v>
       </c>
       <c r="AE6" t="n">
-        <v>2272420.045181296</v>
+        <v>2372283.709506762</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.396843393364145e-06</v>
+        <v>2.361433062544774e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.50555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2055543.465430758</v>
+        <v>2145876.281792534</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1551.73440650879</v>
+        <v>1624.550544594835</v>
       </c>
       <c r="AB7" t="n">
-        <v>2123.151472675841</v>
+        <v>2222.781725226458</v>
       </c>
       <c r="AC7" t="n">
-        <v>1920.520875985465</v>
+        <v>2010.64255706459</v>
       </c>
       <c r="AD7" t="n">
-        <v>1551734.40650879</v>
+        <v>1624550.544594835</v>
       </c>
       <c r="AE7" t="n">
-        <v>2123151.47267584</v>
+        <v>2222781.725226458</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439587530623225e-06</v>
+        <v>2.433694147382958e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.075</v>
       </c>
       <c r="AH7" t="n">
-        <v>1920520.875985465</v>
+        <v>2010642.55706459</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1455.066112714085</v>
+        <v>1527.967502146151</v>
       </c>
       <c r="AB8" t="n">
-        <v>1990.88564840179</v>
+        <v>2090.632545605058</v>
       </c>
       <c r="AC8" t="n">
-        <v>1800.87831634388</v>
+        <v>1891.105509673717</v>
       </c>
       <c r="AD8" t="n">
-        <v>1455066.112714085</v>
+        <v>1527967.50214615</v>
       </c>
       <c r="AE8" t="n">
-        <v>1990885.64840179</v>
+        <v>2090632.545605058</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469639722689337e-06</v>
+        <v>2.484498869146324e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.78611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1800878.31634388</v>
+        <v>1891105.509673717</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1385.528582348968</v>
+        <v>1458.429971781034</v>
       </c>
       <c r="AB9" t="n">
-        <v>1895.741331576911</v>
+        <v>1995.488228780178</v>
       </c>
       <c r="AC9" t="n">
-        <v>1714.814439580879</v>
+        <v>1805.041632910716</v>
       </c>
       <c r="AD9" t="n">
-        <v>1385528.582348968</v>
+        <v>1458429.971781034</v>
       </c>
       <c r="AE9" t="n">
-        <v>1895741.331576911</v>
+        <v>1995488.228780178</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.493418884372716e-06</v>
+        <v>2.524698721803744e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.56805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1714814.439580879</v>
+        <v>1805041.632910716</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1353.329738968209</v>
+        <v>1426.060536199682</v>
       </c>
       <c r="AB10" t="n">
-        <v>1851.685453550641</v>
+        <v>1951.198938979061</v>
       </c>
       <c r="AC10" t="n">
-        <v>1674.963192720624</v>
+        <v>1764.979250767809</v>
       </c>
       <c r="AD10" t="n">
-        <v>1353329.738968209</v>
+        <v>1426060.536199682</v>
       </c>
       <c r="AE10" t="n">
-        <v>1851685.453550641</v>
+        <v>1951198.938979061</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.540236088168268e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.48472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1674963.192720623</v>
+        <v>1764979.250767809</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1351.222961522583</v>
+        <v>1423.953758754056</v>
       </c>
       <c r="AB11" t="n">
-        <v>1848.802867705074</v>
+        <v>1948.316353133494</v>
       </c>
       <c r="AC11" t="n">
-        <v>1672.355716822423</v>
+        <v>1762.371774869609</v>
       </c>
       <c r="AD11" t="n">
-        <v>1351222.961522583</v>
+        <v>1423953.758754056</v>
       </c>
       <c r="AE11" t="n">
-        <v>1848802.867705074</v>
+        <v>1948316.353133495</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.545168585426848e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.45833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1672355.716822423</v>
+        <v>1762371.774869609</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1357.323061786113</v>
+        <v>1430.053859017587</v>
       </c>
       <c r="AB12" t="n">
-        <v>1857.149294003066</v>
+        <v>1956.662779431487</v>
       </c>
       <c r="AC12" t="n">
-        <v>1679.905571908818</v>
+        <v>1769.921629956003</v>
       </c>
       <c r="AD12" t="n">
-        <v>1357323.061786113</v>
+        <v>1430053.859017587</v>
       </c>
       <c r="AE12" t="n">
-        <v>1857149.294003066</v>
+        <v>1956662.779431487</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.545168585426848e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.45833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1679905.571908818</v>
+        <v>1769921.629956004</v>
       </c>
     </row>
   </sheetData>
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4931.795158338035</v>
+        <v>5072.977856806056</v>
       </c>
       <c r="AB2" t="n">
-        <v>6747.899711085167</v>
+        <v>6941.072107670194</v>
       </c>
       <c r="AC2" t="n">
-        <v>6103.88963339567</v>
+        <v>6278.625927569776</v>
       </c>
       <c r="AD2" t="n">
-        <v>4931795.158338035</v>
+        <v>5072977.856806057</v>
       </c>
       <c r="AE2" t="n">
-        <v>6747899.711085167</v>
+        <v>6941072.107670194</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399382023304888e-07</v>
+        <v>1.281418324889147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6103889.63339567</v>
+        <v>6278625.927569776</v>
       </c>
     </row>
     <row r="3">
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2122.647419062419</v>
+        <v>2213.462529657163</v>
       </c>
       <c r="AB3" t="n">
-        <v>2904.299843356227</v>
+        <v>3028.557084152045</v>
       </c>
       <c r="AC3" t="n">
-        <v>2627.117542516739</v>
+        <v>2739.515846647023</v>
       </c>
       <c r="AD3" t="n">
-        <v>2122647.419062419</v>
+        <v>2213462.529657163</v>
       </c>
       <c r="AE3" t="n">
-        <v>2904299.843356227</v>
+        <v>3028557.084152045</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196306369543909e-06</v>
+        <v>2.071752612970889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.51944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>2627117.542516739</v>
+        <v>2739515.846647023</v>
       </c>
     </row>
     <row r="4">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1677.505026971352</v>
+        <v>1758.058977521642</v>
       </c>
       <c r="AB4" t="n">
-        <v>2295.236384200891</v>
+        <v>2405.453853133281</v>
       </c>
       <c r="AC4" t="n">
-        <v>2076.182245077256</v>
+        <v>2175.880713465927</v>
       </c>
       <c r="AD4" t="n">
-        <v>1677505.026971353</v>
+        <v>1758058.977521641</v>
       </c>
       <c r="AE4" t="n">
-        <v>2295236.384200891</v>
+        <v>2405453.853133281</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.36140781628051e-06</v>
+        <v>2.357673813751784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2076182.245077255</v>
+        <v>2175880.713465927</v>
       </c>
     </row>
     <row r="5">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1474.381612388486</v>
+        <v>1544.930335949487</v>
       </c>
       <c r="AB5" t="n">
-        <v>2017.313967196011</v>
+        <v>2113.841843162194</v>
       </c>
       <c r="AC5" t="n">
-        <v>1824.784353484759</v>
+        <v>1912.099744446454</v>
       </c>
       <c r="AD5" t="n">
-        <v>1474381.612388487</v>
+        <v>1544930.335949487</v>
       </c>
       <c r="AE5" t="n">
-        <v>2017313.967196011</v>
+        <v>2113841.843162194</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448486001625134e-06</v>
+        <v>2.50847503207955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.47083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1824784.353484759</v>
+        <v>1912099.744446454</v>
       </c>
     </row>
     <row r="6">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.683534909425</v>
+        <v>1420.237395951163</v>
       </c>
       <c r="AB6" t="n">
-        <v>1833.014115129379</v>
+        <v>1943.23146159222</v>
       </c>
       <c r="AC6" t="n">
-        <v>1658.073820632899</v>
+        <v>1757.772178240344</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339683.534909425</v>
+        <v>1420237.395951163</v>
       </c>
       <c r="AE6" t="n">
-        <v>1833014.115129379</v>
+        <v>1943231.46159222</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502513714542596e-06</v>
+        <v>2.602039739464889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>1658073.820632899</v>
+        <v>1757772.178240344</v>
       </c>
     </row>
     <row r="7">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1250.30124438925</v>
+        <v>1320.935219296271</v>
       </c>
       <c r="AB7" t="n">
-        <v>1710.71732197132</v>
+        <v>1807.361842590152</v>
       </c>
       <c r="AC7" t="n">
-        <v>1547.448861769218</v>
+        <v>1634.869764981625</v>
       </c>
       <c r="AD7" t="n">
-        <v>1250301.24438925</v>
+        <v>1320935.219296271</v>
       </c>
       <c r="AE7" t="n">
-        <v>1710717.32197132</v>
+        <v>1807361.842590152</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536620594764234e-06</v>
+        <v>2.661105727926024e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.64027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1547448.861769218</v>
+        <v>1634869.764981625</v>
       </c>
     </row>
     <row r="8">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1236.621404379576</v>
+        <v>1307.255379286597</v>
       </c>
       <c r="AB8" t="n">
-        <v>1691.999961358136</v>
+        <v>1788.644481976969</v>
       </c>
       <c r="AC8" t="n">
-        <v>1530.517859782976</v>
+        <v>1617.938762995383</v>
       </c>
       <c r="AD8" t="n">
-        <v>1236621.404379576</v>
+        <v>1307255.379286597</v>
       </c>
       <c r="AE8" t="n">
-        <v>1691999.961358136</v>
+        <v>1788644.481976969</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.54356270312793e-06</v>
+        <v>2.673128008763246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.57916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1530517.859782976</v>
+        <v>1617938.762995383</v>
       </c>
     </row>
     <row r="9">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1243.356847593928</v>
+        <v>1313.990822500949</v>
       </c>
       <c r="AB9" t="n">
-        <v>1701.215691910796</v>
+        <v>1797.860212529628</v>
       </c>
       <c r="AC9" t="n">
-        <v>1538.854053946049</v>
+        <v>1626.274957158456</v>
       </c>
       <c r="AD9" t="n">
-        <v>1243356.847593928</v>
+        <v>1313990.822500949</v>
       </c>
       <c r="AE9" t="n">
-        <v>1701215.691910796</v>
+        <v>1797860.212529628</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.543411787728719e-06</v>
+        <v>2.672866654832002e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.58055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1538854.053946049</v>
+        <v>1626274.957158456</v>
       </c>
     </row>
   </sheetData>
@@ -5998,28 +5998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1539.373509044556</v>
+        <v>1630.356483462567</v>
       </c>
       <c r="AB2" t="n">
-        <v>2106.238747440967</v>
+        <v>2230.725666925235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1905.222277509849</v>
+        <v>2017.828340117027</v>
       </c>
       <c r="AD2" t="n">
-        <v>1539373.509044556</v>
+        <v>1630356.483462567</v>
       </c>
       <c r="AE2" t="n">
-        <v>2106238.747440967</v>
+        <v>2230725.666925235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305433703214847e-06</v>
+        <v>2.470161482394971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.91527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1905222.277509849</v>
+        <v>2017828.340117027</v>
       </c>
     </row>
     <row r="3">
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.5164956806166</v>
+        <v>1070.354079727768</v>
       </c>
       <c r="AB3" t="n">
-        <v>1364.846076712128</v>
+        <v>1464.505672572861</v>
       </c>
       <c r="AC3" t="n">
-        <v>1234.587082724222</v>
+        <v>1324.735306629127</v>
       </c>
       <c r="AD3" t="n">
-        <v>997516.4956806166</v>
+        <v>1070354.079727768</v>
       </c>
       <c r="AE3" t="n">
-        <v>1364846.076712128</v>
+        <v>1464505.672572861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606363789340354e-06</v>
+        <v>3.039585962405266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.56111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1234587.082724222</v>
+        <v>1324735.306629127</v>
       </c>
     </row>
     <row r="4">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>986.2289679255938</v>
+        <v>1049.951275868581</v>
       </c>
       <c r="AB4" t="n">
-        <v>1349.401983267127</v>
+        <v>1436.589656224541</v>
       </c>
       <c r="AC4" t="n">
-        <v>1220.61695188169</v>
+        <v>1299.483555700716</v>
       </c>
       <c r="AD4" t="n">
-        <v>986228.9679255938</v>
+        <v>1049951.275868581</v>
       </c>
       <c r="AE4" t="n">
-        <v>1349401.983267127</v>
+        <v>1436589.656224541</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618993759379198e-06</v>
+        <v>3.063484583558468e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1220616.95188169</v>
+        <v>1299483.555700716</v>
       </c>
     </row>
   </sheetData>
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2365.313566388294</v>
+        <v>2469.69116410242</v>
       </c>
       <c r="AB2" t="n">
-        <v>3236.326371802526</v>
+        <v>3379.140405809621</v>
       </c>
       <c r="AC2" t="n">
-        <v>2927.455925090162</v>
+        <v>3056.63998813237</v>
       </c>
       <c r="AD2" t="n">
-        <v>2365313.566388295</v>
+        <v>2469691.16410242</v>
       </c>
       <c r="AE2" t="n">
-        <v>3236326.371802527</v>
+        <v>3379140.405809621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075359548586465e-06</v>
+        <v>1.959071556551074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2927455.925090162</v>
+        <v>3056639.98813237</v>
       </c>
     </row>
     <row r="3">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1342.869948639714</v>
+        <v>1418.672402670901</v>
       </c>
       <c r="AB3" t="n">
-        <v>1837.373906969813</v>
+        <v>1941.090168743536</v>
       </c>
       <c r="AC3" t="n">
-        <v>1662.017520059088</v>
+        <v>1755.835247375815</v>
       </c>
       <c r="AD3" t="n">
-        <v>1342869.948639714</v>
+        <v>1418672.402670902</v>
       </c>
       <c r="AE3" t="n">
-        <v>1837373.906969813</v>
+        <v>1941090.168743536</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455722678805587e-06</v>
+        <v>2.652010574531162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.37083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1662017.520059088</v>
+        <v>1755835.247375815</v>
       </c>
     </row>
     <row r="4">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1102.633222582005</v>
+        <v>1169.024386688792</v>
       </c>
       <c r="AB4" t="n">
-        <v>1508.671419881306</v>
+        <v>1599.510739583655</v>
       </c>
       <c r="AC4" t="n">
-        <v>1364.68593700147</v>
+        <v>1446.855679525213</v>
       </c>
       <c r="AD4" t="n">
-        <v>1102633.222582005</v>
+        <v>1169024.386688791</v>
       </c>
       <c r="AE4" t="n">
-        <v>1508671.419881306</v>
+        <v>1599510.739583655</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583315901649105e-06</v>
+        <v>2.884457716521941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.13194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1364685.93700147</v>
+        <v>1446855.679525213</v>
       </c>
     </row>
     <row r="5">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1062.73982390561</v>
+        <v>1138.542188428246</v>
       </c>
       <c r="AB5" t="n">
-        <v>1454.087511839725</v>
+        <v>1557.8036511439</v>
       </c>
       <c r="AC5" t="n">
-        <v>1315.311440534382</v>
+        <v>1409.129057069882</v>
       </c>
       <c r="AD5" t="n">
-        <v>1062739.82390561</v>
+        <v>1138542.188428246</v>
       </c>
       <c r="AE5" t="n">
-        <v>1454087.511839726</v>
+        <v>1557803.6511439</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>2.917329029530738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.97361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1315311.440534382</v>
+        <v>1409129.057069882</v>
       </c>
     </row>
     <row r="6">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1069.195716805165</v>
+        <v>1144.998081327801</v>
       </c>
       <c r="AB6" t="n">
-        <v>1462.92074931879</v>
+        <v>1566.636888622965</v>
       </c>
       <c r="AC6" t="n">
-        <v>1323.301646225971</v>
+        <v>1417.119262761471</v>
       </c>
       <c r="AD6" t="n">
-        <v>1069195.716805165</v>
+        <v>1144998.081327801</v>
       </c>
       <c r="AE6" t="n">
-        <v>1462920.74931879</v>
+        <v>1566636.888622965</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>2.917329029530738e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.97222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1323301.646225971</v>
+        <v>1417119.262761471</v>
       </c>
     </row>
   </sheetData>
@@ -7228,28 +7228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.96114793257</v>
+        <v>1138.297096323088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1461.231557721971</v>
+        <v>1557.468305312921</v>
       </c>
       <c r="AC2" t="n">
-        <v>1321.773668704357</v>
+        <v>1408.825716174351</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067961.14793257</v>
+        <v>1138297.096323088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1461231.557721971</v>
+        <v>1557468.305312921</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508313062108971e-06</v>
+        <v>2.955807622559579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1321773.668704357</v>
+        <v>1408825.716174351</v>
       </c>
     </row>
     <row r="3">
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.8105631963959</v>
+        <v>992.4292024744182</v>
       </c>
       <c r="AB3" t="n">
-        <v>1273.576077029173</v>
+        <v>1357.885417711872</v>
       </c>
       <c r="AC3" t="n">
-        <v>1152.027763712759</v>
+        <v>1228.290739249603</v>
       </c>
       <c r="AD3" t="n">
-        <v>930810.563196396</v>
+        <v>992429.2024744182</v>
       </c>
       <c r="AE3" t="n">
-        <v>1273576.077029173</v>
+        <v>1357885.417711872</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.610103206142762e-06</v>
+        <v>3.155283508033799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.08611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1152027.763712759</v>
+        <v>1228290.739249603</v>
       </c>
     </row>
   </sheetData>
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5563.340682411037</v>
+        <v>5725.981304542151</v>
       </c>
       <c r="AB2" t="n">
-        <v>7612.008158944031</v>
+        <v>7834.540233341681</v>
       </c>
       <c r="AC2" t="n">
-        <v>6885.528783774675</v>
+        <v>7086.822709317535</v>
       </c>
       <c r="AD2" t="n">
-        <v>5563340.682411037</v>
+        <v>5725981.30454215</v>
       </c>
       <c r="AE2" t="n">
-        <v>7612008.15894403</v>
+        <v>7834540.233341682</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933589407681284e-07</v>
+        <v>1.192911027497587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6885528.783774675</v>
+        <v>7086822.709317534</v>
       </c>
     </row>
     <row r="3">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2265.040544620098</v>
+        <v>2366.626927811115</v>
       </c>
       <c r="AB3" t="n">
-        <v>3099.128399685763</v>
+        <v>3238.123370842647</v>
       </c>
       <c r="AC3" t="n">
-        <v>2803.351934873664</v>
+        <v>2929.081421063997</v>
       </c>
       <c r="AD3" t="n">
-        <v>2265040.544620098</v>
+        <v>2366626.927811116</v>
       </c>
       <c r="AE3" t="n">
-        <v>3099128.399685763</v>
+        <v>3238123.370842647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158938402073388e-06</v>
+        <v>1.993931741173167e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.92222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2803351.934873664</v>
+        <v>2929081.421063997</v>
       </c>
     </row>
     <row r="4">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1773.164300486662</v>
+        <v>1854.569952406791</v>
       </c>
       <c r="AB4" t="n">
-        <v>2426.12162241384</v>
+        <v>2537.504426734857</v>
       </c>
       <c r="AC4" t="n">
-        <v>2194.575979853746</v>
+        <v>2295.328565657113</v>
       </c>
       <c r="AD4" t="n">
-        <v>1773164.300486662</v>
+        <v>1854569.952406791</v>
       </c>
       <c r="AE4" t="n">
-        <v>2426121.62241384</v>
+        <v>2537504.426734857</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329735621736288e-06</v>
+        <v>2.28778514786045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.62222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2194575.979853746</v>
+        <v>2295328.565657113</v>
       </c>
     </row>
     <row r="5">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1558.613361048417</v>
+        <v>1639.933672113974</v>
       </c>
       <c r="AB5" t="n">
-        <v>2132.563561755014</v>
+        <v>2243.829598953833</v>
       </c>
       <c r="AC5" t="n">
-        <v>1929.034688492872</v>
+        <v>2029.6816512643</v>
       </c>
       <c r="AD5" t="n">
-        <v>1558613.361048417</v>
+        <v>1639933.672113974</v>
       </c>
       <c r="AE5" t="n">
-        <v>2132563.561755014</v>
+        <v>2243829.598953833</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.418125426307893e-06</v>
+        <v>2.439858145541873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.64722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1929034.688492872</v>
+        <v>2029681.6512643</v>
       </c>
     </row>
     <row r="6">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1426.464802869442</v>
+        <v>1497.609496953535</v>
       </c>
       <c r="AB6" t="n">
-        <v>1951.752074471614</v>
+        <v>2049.095383599854</v>
       </c>
       <c r="AC6" t="n">
-        <v>1765.479595785283</v>
+        <v>1853.532596112517</v>
       </c>
       <c r="AD6" t="n">
-        <v>1426464.802869442</v>
+        <v>1497609.496953534</v>
       </c>
       <c r="AE6" t="n">
-        <v>1951752.074471614</v>
+        <v>2049095.383599854</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474359887422823e-06</v>
+        <v>2.536608479092151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.08888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1765479.595785283</v>
+        <v>1853532.596112517</v>
       </c>
     </row>
     <row r="7">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1314.729968106378</v>
+        <v>1385.959913536491</v>
       </c>
       <c r="AB7" t="n">
-        <v>1798.871544155779</v>
+        <v>1896.331497936669</v>
       </c>
       <c r="AC7" t="n">
-        <v>1627.18976871362</v>
+        <v>1715.348281291566</v>
       </c>
       <c r="AD7" t="n">
-        <v>1314729.968106378</v>
+        <v>1385959.913536491</v>
       </c>
       <c r="AE7" t="n">
-        <v>1798871.544155779</v>
+        <v>1896331.497936669</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514292337203904e-06</v>
+        <v>2.605311508501525e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.71805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1627189.76871362</v>
+        <v>1715348.281291566</v>
       </c>
     </row>
     <row r="8">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1265.125738827121</v>
+        <v>1336.355684257234</v>
       </c>
       <c r="AB8" t="n">
-        <v>1731.000849271752</v>
+        <v>1828.460803052642</v>
       </c>
       <c r="AC8" t="n">
-        <v>1565.796557692206</v>
+        <v>1653.955070270152</v>
       </c>
       <c r="AD8" t="n">
-        <v>1265125.738827121</v>
+        <v>1336355.684257234</v>
       </c>
       <c r="AE8" t="n">
-        <v>1731000.849271752</v>
+        <v>1828460.803052642</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.532389065381847e-06</v>
+        <v>2.636446589245099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1565796.557692206</v>
+        <v>1653955.070270152</v>
       </c>
     </row>
     <row r="9">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1263.986806302297</v>
+        <v>1335.21675173241</v>
       </c>
       <c r="AB9" t="n">
-        <v>1729.442511545132</v>
+        <v>1826.902465326021</v>
       </c>
       <c r="AC9" t="n">
-        <v>1564.386945531073</v>
+        <v>1652.545458109019</v>
       </c>
       <c r="AD9" t="n">
-        <v>1263986.806302297</v>
+        <v>1335216.75173241</v>
       </c>
       <c r="AE9" t="n">
-        <v>1729442.511545131</v>
+        <v>1826902.465326021</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.532688184855862e-06</v>
+        <v>2.636961218678877e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.55277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1564386.945531073</v>
+        <v>1652545.458109019</v>
       </c>
     </row>
     <row r="10">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1268.17024152768</v>
+        <v>1339.400186957792</v>
       </c>
       <c r="AB10" t="n">
-        <v>1735.166472180636</v>
+        <v>1832.626425961526</v>
       </c>
       <c r="AC10" t="n">
-        <v>1569.564619397154</v>
+        <v>1657.7231319751</v>
       </c>
       <c r="AD10" t="n">
-        <v>1268170.24152768</v>
+        <v>1339400.186957792</v>
       </c>
       <c r="AE10" t="n">
-        <v>1735166.472180636</v>
+        <v>1832626.425961526</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.534333341962949e-06</v>
+        <v>2.639791680564656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.5375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1569564.619397154</v>
+        <v>1657723.1319751</v>
       </c>
     </row>
   </sheetData>
@@ -8776,28 +8776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>913.5559768629822</v>
+        <v>982.4957807263525</v>
       </c>
       <c r="AB2" t="n">
-        <v>1249.967590789172</v>
+        <v>1344.294071844529</v>
       </c>
       <c r="AC2" t="n">
-        <v>1130.672438264784</v>
+        <v>1215.996532356266</v>
       </c>
       <c r="AD2" t="n">
-        <v>913555.9768629823</v>
+        <v>982495.7807263525</v>
       </c>
       <c r="AE2" t="n">
-        <v>1249967.590789172</v>
+        <v>1344294.071844529</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571144078775318e-06</v>
+        <v>3.149610280660221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.82222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1130672.438264784</v>
+        <v>1215996.532356266</v>
       </c>
     </row>
     <row r="3">
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>905.8352188507619</v>
+        <v>974.7750227141322</v>
       </c>
       <c r="AB3" t="n">
-        <v>1239.403709061048</v>
+        <v>1333.730190116406</v>
       </c>
       <c r="AC3" t="n">
-        <v>1121.116758582292</v>
+        <v>1206.440852673774</v>
       </c>
       <c r="AD3" t="n">
-        <v>905835.2188507619</v>
+        <v>974775.0227141322</v>
       </c>
       <c r="AE3" t="n">
-        <v>1239403.709061048</v>
+        <v>1333730.190116406</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586536923475098e-06</v>
+        <v>3.180467706513123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.66944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1121116.758582292</v>
+        <v>1206440.852673774</v>
       </c>
     </row>
   </sheetData>
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3438.903783003946</v>
+        <v>3556.589552589706</v>
       </c>
       <c r="AB2" t="n">
-        <v>4705.259869633756</v>
+        <v>4866.282731510727</v>
       </c>
       <c r="AC2" t="n">
-        <v>4256.196471549437</v>
+        <v>4401.851537485869</v>
       </c>
       <c r="AD2" t="n">
-        <v>3438903.783003946</v>
+        <v>3556589.552589706</v>
       </c>
       <c r="AE2" t="n">
-        <v>4705259.869633757</v>
+        <v>4866282.731510727</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.937543684227315e-07</v>
+        <v>1.582905398593022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.16527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4256196.471549436</v>
+        <v>4401851.537485869</v>
       </c>
     </row>
     <row r="3">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1720.137229706866</v>
+        <v>1798.565992315366</v>
       </c>
       <c r="AB3" t="n">
-        <v>2353.567644783667</v>
+        <v>2460.877337817425</v>
       </c>
       <c r="AC3" t="n">
-        <v>2128.946452018449</v>
+        <v>2226.014658559165</v>
       </c>
       <c r="AD3" t="n">
-        <v>1720137.229706866</v>
+        <v>1798565.992315366</v>
       </c>
       <c r="AE3" t="n">
-        <v>2353567.644783667</v>
+        <v>2460877.337817424</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31606419177627e-06</v>
+        <v>2.330847476285897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.40972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2128946.452018449</v>
+        <v>2226014.658559165</v>
       </c>
     </row>
     <row r="4">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1382.101726667925</v>
+        <v>1460.530399767873</v>
       </c>
       <c r="AB4" t="n">
-        <v>1891.052556451906</v>
+        <v>1998.362127016115</v>
       </c>
       <c r="AC4" t="n">
-        <v>1710.573154573068</v>
+        <v>1807.641250332557</v>
       </c>
       <c r="AD4" t="n">
-        <v>1382101.726667925</v>
+        <v>1460530.399767873</v>
       </c>
       <c r="AE4" t="n">
-        <v>1891052.556451906</v>
+        <v>1998362.127016115</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466111680559836e-06</v>
+        <v>2.596592728485317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1710573.154573068</v>
+        <v>1807641.250332557</v>
       </c>
     </row>
     <row r="5">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1207.118157736169</v>
+        <v>1285.461489981545</v>
       </c>
       <c r="AB5" t="n">
-        <v>1651.632317709246</v>
+        <v>1758.825121151258</v>
       </c>
       <c r="AC5" t="n">
-        <v>1494.002847387592</v>
+        <v>1590.965320115143</v>
       </c>
       <c r="AD5" t="n">
-        <v>1207118.157736169</v>
+        <v>1285461.489981545</v>
       </c>
       <c r="AE5" t="n">
-        <v>1651632.317709246</v>
+        <v>1758825.121151258</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544944920780839e-06</v>
+        <v>2.736212254770401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1494002.847387592</v>
+        <v>1590965.320115143</v>
       </c>
     </row>
     <row r="6">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1148.88311012709</v>
+        <v>1217.582872337294</v>
       </c>
       <c r="AB6" t="n">
-        <v>1571.952556421525</v>
+        <v>1665.950601897131</v>
       </c>
       <c r="AC6" t="n">
-        <v>1421.927610685924</v>
+        <v>1506.954614628424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1148883.11012709</v>
+        <v>1217582.872337294</v>
       </c>
       <c r="AE6" t="n">
-        <v>1571952.556421525</v>
+        <v>1665950.601897131</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.572000115649585e-06</v>
+        <v>2.784129015270607e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.7375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1421927.610685924</v>
+        <v>1506954.614628423</v>
       </c>
     </row>
     <row r="7">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1152.480802801708</v>
+        <v>1221.180565011912</v>
       </c>
       <c r="AB7" t="n">
-        <v>1576.875078257937</v>
+        <v>1670.873123733543</v>
       </c>
       <c r="AC7" t="n">
-        <v>1426.380333947071</v>
+        <v>1511.407337889571</v>
       </c>
       <c r="AD7" t="n">
-        <v>1152480.802801708</v>
+        <v>1221180.565011912</v>
       </c>
       <c r="AE7" t="n">
-        <v>1576875.078257937</v>
+        <v>1670873.123733543</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57355501190641e-06</v>
+        <v>2.786882852080964e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.72361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1426380.333947071</v>
+        <v>1511407.337889571</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4361.710036918937</v>
+        <v>4501.655379777925</v>
       </c>
       <c r="AB2" t="n">
-        <v>5967.884097578978</v>
+        <v>6159.363489631448</v>
       </c>
       <c r="AC2" t="n">
-        <v>5398.317615283754</v>
+        <v>5571.522482901742</v>
       </c>
       <c r="AD2" t="n">
-        <v>4361710.036918936</v>
+        <v>4501655.379777925</v>
       </c>
       <c r="AE2" t="n">
-        <v>5967884.097578978</v>
+        <v>6159363.489631448</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.891670693305835e-07</v>
+        <v>1.376238459471938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.81388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>5398317.615283754</v>
+        <v>5571522.482901742</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1989.755644054978</v>
+        <v>2069.773267114134</v>
       </c>
       <c r="AB3" t="n">
-        <v>2722.471454019706</v>
+        <v>2831.955096017629</v>
       </c>
       <c r="AC3" t="n">
-        <v>2462.642599460749</v>
+        <v>2561.677276327647</v>
       </c>
       <c r="AD3" t="n">
-        <v>1989755.644054978</v>
+        <v>2069773.267114134</v>
       </c>
       <c r="AE3" t="n">
-        <v>2722471.454019706</v>
+        <v>2831955.096017629</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234025726173306e-06</v>
+        <v>2.152033112301679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.14722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2462642.599460749</v>
+        <v>2561677.276327647</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1580.966680811113</v>
+        <v>1650.982112176443</v>
       </c>
       <c r="AB4" t="n">
-        <v>2163.148360013202</v>
+        <v>2258.946562070078</v>
       </c>
       <c r="AC4" t="n">
-        <v>1956.700516531333</v>
+        <v>2043.355872637522</v>
       </c>
       <c r="AD4" t="n">
-        <v>1580966.680811113</v>
+        <v>1650982.112176443</v>
       </c>
       <c r="AE4" t="n">
-        <v>2163148.360013202</v>
+        <v>2258946.562070079</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.395210814851251e-06</v>
+        <v>2.433125832402318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.16527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1956700.516531333</v>
+        <v>2043355.872637522</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1391.887024399689</v>
+        <v>1461.817114910449</v>
       </c>
       <c r="AB5" t="n">
-        <v>1904.441232505374</v>
+        <v>2000.122667440052</v>
       </c>
       <c r="AC5" t="n">
-        <v>1722.684034175117</v>
+        <v>1809.233767249368</v>
       </c>
       <c r="AD5" t="n">
-        <v>1391887.024399689</v>
+        <v>1461817.114910449</v>
       </c>
       <c r="AE5" t="n">
-        <v>1904441.232505374</v>
+        <v>2000122.667440052</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478697987436804e-06</v>
+        <v>2.578720171358037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.30972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1722684.034175118</v>
+        <v>1809233.767249368</v>
       </c>
     </row>
     <row r="6">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1255.580251706341</v>
+        <v>1325.59559356312</v>
       </c>
       <c r="AB6" t="n">
-        <v>1717.94029267593</v>
+        <v>1813.738372263258</v>
       </c>
       <c r="AC6" t="n">
-        <v>1553.982482287283</v>
+        <v>1640.637727612245</v>
       </c>
       <c r="AD6" t="n">
-        <v>1255580.251706341</v>
+        <v>1325595.59356312</v>
       </c>
       <c r="AE6" t="n">
-        <v>1717940.29267593</v>
+        <v>1813738.372263258</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.531258342440482e-06</v>
+        <v>2.670380840956071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.81805555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1553982.482287283</v>
+        <v>1640637.727612245</v>
       </c>
     </row>
     <row r="7">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1206.073095642712</v>
+        <v>1276.088437499491</v>
       </c>
       <c r="AB7" t="n">
-        <v>1650.202417648093</v>
+        <v>1746.000497235421</v>
       </c>
       <c r="AC7" t="n">
-        <v>1492.709414981398</v>
+        <v>1579.36466030636</v>
       </c>
       <c r="AD7" t="n">
-        <v>1206073.095642712</v>
+        <v>1276088.437499491</v>
       </c>
       <c r="AE7" t="n">
-        <v>1650202.417648093</v>
+        <v>1746000.497235421</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.552891879862285e-06</v>
+        <v>2.708107841196422e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1492709.414981398</v>
+        <v>1579364.66030636</v>
       </c>
     </row>
     <row r="8">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1211.127987274341</v>
+        <v>1281.143329131121</v>
       </c>
       <c r="AB8" t="n">
-        <v>1657.118743384568</v>
+        <v>1752.916822971896</v>
       </c>
       <c r="AC8" t="n">
-        <v>1498.965656296708</v>
+        <v>1585.62090162167</v>
       </c>
       <c r="AD8" t="n">
-        <v>1211127.987274341</v>
+        <v>1281143.329131121</v>
       </c>
       <c r="AE8" t="n">
-        <v>1657118.743384568</v>
+        <v>1752916.822971896</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553653624137701e-06</v>
+        <v>2.709436256697843e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.61944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1498965.656296708</v>
+        <v>1585620.90162167</v>
       </c>
     </row>
     <row r="9">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1216.622779535681</v>
+        <v>1286.638121392461</v>
       </c>
       <c r="AB9" t="n">
-        <v>1664.636960569659</v>
+        <v>1760.435040156987</v>
       </c>
       <c r="AC9" t="n">
-        <v>1505.766345385538</v>
+        <v>1592.4215907105</v>
       </c>
       <c r="AD9" t="n">
-        <v>1216622.779535681</v>
+        <v>1286638.121392461</v>
       </c>
       <c r="AE9" t="n">
-        <v>1664636.960569659</v>
+        <v>1760435.040156987</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.553348926427535e-06</v>
+        <v>2.708904890497274e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.62083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1505766.345385538</v>
+        <v>1592421.5907105</v>
       </c>
     </row>
   </sheetData>
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7182.85570535734</v>
+        <v>7368.758679477483</v>
       </c>
       <c r="AB2" t="n">
-        <v>9827.900061299555</v>
+        <v>10082.26071195114</v>
       </c>
       <c r="AC2" t="n">
-        <v>8889.939072993122</v>
+        <v>9120.023900143929</v>
       </c>
       <c r="AD2" t="n">
-        <v>7182855.705357339</v>
+        <v>7368758.679477483</v>
       </c>
       <c r="AE2" t="n">
-        <v>9827900.061299555</v>
+        <v>10082260.71195114</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.04378101021158e-07</v>
+        <v>1.027402715744029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.79305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>8889939.072993122</v>
+        <v>9120023.900143929</v>
       </c>
     </row>
     <row r="3">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2566.977544283747</v>
+        <v>2670.266456667669</v>
       </c>
       <c r="AB3" t="n">
-        <v>3512.2519231459</v>
+        <v>3653.576369854803</v>
       </c>
       <c r="AC3" t="n">
-        <v>3177.047529077257</v>
+        <v>3304.884168942364</v>
       </c>
       <c r="AD3" t="n">
-        <v>2566977.544283747</v>
+        <v>2670266.456667669</v>
       </c>
       <c r="AE3" t="n">
-        <v>3512251.9231459</v>
+        <v>3653576.369854804</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09067454386227e-06</v>
+        <v>1.854074438606681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>3177047.529077257</v>
+        <v>3304884.168942364</v>
       </c>
     </row>
     <row r="4">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1984.633147715139</v>
+        <v>2067.247298959914</v>
       </c>
       <c r="AB4" t="n">
-        <v>2715.46262853895</v>
+        <v>2828.498954951174</v>
       </c>
       <c r="AC4" t="n">
-        <v>2456.302686446927</v>
+        <v>2558.55098451385</v>
       </c>
       <c r="AD4" t="n">
-        <v>1984633.147715139</v>
+        <v>2067247.298959914</v>
       </c>
       <c r="AE4" t="n">
-        <v>2715462.628538949</v>
+        <v>2828498.954951174</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267576455183061e-06</v>
+        <v>2.154795963433948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.1125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2456302.686446927</v>
+        <v>2558550.98451385</v>
       </c>
     </row>
     <row r="5">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1723.490200894666</v>
+        <v>1806.10426263089</v>
       </c>
       <c r="AB5" t="n">
-        <v>2358.155327885464</v>
+        <v>2471.19153182814</v>
       </c>
       <c r="AC5" t="n">
-        <v>2133.096293083864</v>
+        <v>2235.344480369559</v>
       </c>
       <c r="AD5" t="n">
-        <v>1723490.200894666</v>
+        <v>1806104.26263089</v>
       </c>
       <c r="AE5" t="n">
-        <v>2358155.327885463</v>
+        <v>2471191.53182814</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362865265271069e-06</v>
+        <v>2.316780625186291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.98611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2133096.293083864</v>
+        <v>2235344.480369559</v>
       </c>
     </row>
     <row r="6">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1582.410965308748</v>
+        <v>1654.687691229673</v>
       </c>
       <c r="AB6" t="n">
-        <v>2165.124493780202</v>
+        <v>2264.016698809318</v>
       </c>
       <c r="AC6" t="n">
-        <v>1958.488050865132</v>
+        <v>2047.94212264235</v>
       </c>
       <c r="AD6" t="n">
-        <v>1582410.965308748</v>
+        <v>1654687.691229673</v>
       </c>
       <c r="AE6" t="n">
-        <v>2165124.493780202</v>
+        <v>2264016.698809318</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421685518411814e-06</v>
+        <v>2.416771157132182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.36527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1958488.050865132</v>
+        <v>2047942.12264235</v>
       </c>
     </row>
     <row r="7">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1466.403124777195</v>
+        <v>1548.931845658847</v>
       </c>
       <c r="AB7" t="n">
-        <v>2006.397448460212</v>
+        <v>2119.31688528069</v>
       </c>
       <c r="AC7" t="n">
-        <v>1814.909691975673</v>
+        <v>1917.05225622943</v>
       </c>
       <c r="AD7" t="n">
-        <v>1466403.124777196</v>
+        <v>1548931.845658847</v>
       </c>
       <c r="AE7" t="n">
-        <v>2006397.448460212</v>
+        <v>2119316.88528069</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.463741999407447e-06</v>
+        <v>2.488264387473494e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.95416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1814909.691975673</v>
+        <v>1917052.25622943</v>
       </c>
     </row>
     <row r="8">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1384.436232107332</v>
+        <v>1456.798209374277</v>
       </c>
       <c r="AB8" t="n">
-        <v>1894.246729785212</v>
+        <v>1993.255579466977</v>
       </c>
       <c r="AC8" t="n">
-        <v>1713.462480486494</v>
+        <v>1803.022064514424</v>
       </c>
       <c r="AD8" t="n">
-        <v>1384436.232107332</v>
+        <v>1456798.209374277</v>
       </c>
       <c r="AE8" t="n">
-        <v>1894246.729785212</v>
+        <v>1993255.579466977</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492710974079264e-06</v>
+        <v>2.537509724456845e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.68194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1713462.480486494</v>
+        <v>1803022.064514424</v>
       </c>
     </row>
     <row r="9">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1331.298948955346</v>
+        <v>1403.660926222291</v>
       </c>
       <c r="AB9" t="n">
-        <v>1821.541954725182</v>
+        <v>1920.550804406947</v>
       </c>
       <c r="AC9" t="n">
-        <v>1647.696547116401</v>
+        <v>1737.256131144331</v>
       </c>
       <c r="AD9" t="n">
-        <v>1331298.948955346</v>
+        <v>1403660.926222292</v>
       </c>
       <c r="AE9" t="n">
-        <v>1821541.954725182</v>
+        <v>1920550.804406947</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510357050021487e-06</v>
+        <v>2.567506884040612e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.52222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1647696.5471164</v>
+        <v>1737256.131144331</v>
       </c>
     </row>
     <row r="10">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1321.277353427963</v>
+        <v>1393.468738494317</v>
       </c>
       <c r="AB10" t="n">
-        <v>1807.829965603026</v>
+        <v>1906.605403509943</v>
       </c>
       <c r="AC10" t="n">
-        <v>1635.293210991165</v>
+        <v>1724.641659736444</v>
       </c>
       <c r="AD10" t="n">
-        <v>1321277.353427963</v>
+        <v>1393468.738494317</v>
       </c>
       <c r="AE10" t="n">
-        <v>1807829.965603026</v>
+        <v>1906605.403509943</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513445113311377e-06</v>
+        <v>2.572756386967772e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.49444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1635293.210991165</v>
+        <v>1724641.659736444</v>
       </c>
     </row>
     <row r="11">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1324.528940797052</v>
+        <v>1396.720325863405</v>
       </c>
       <c r="AB11" t="n">
-        <v>1812.278930891323</v>
+        <v>1911.05436879824</v>
       </c>
       <c r="AC11" t="n">
-        <v>1639.317573276509</v>
+        <v>1728.666022021788</v>
       </c>
       <c r="AD11" t="n">
-        <v>1324528.940797051</v>
+        <v>1396720.325863405</v>
       </c>
       <c r="AE11" t="n">
-        <v>1812278.930891323</v>
+        <v>1911054.36879824</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514915619639895e-06</v>
+        <v>2.575256150266419e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.48194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1639317.573276509</v>
+        <v>1728666.022021788</v>
       </c>
     </row>
   </sheetData>
@@ -12296,28 +12296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2684.995380432738</v>
+        <v>2800.122455057443</v>
       </c>
       <c r="AB2" t="n">
-        <v>3673.72913314443</v>
+        <v>3831.251075694031</v>
       </c>
       <c r="AC2" t="n">
-        <v>3323.113580788209</v>
+        <v>3465.601850224306</v>
       </c>
       <c r="AD2" t="n">
-        <v>2684995.380432738</v>
+        <v>2800122.455057444</v>
       </c>
       <c r="AE2" t="n">
-        <v>3673729.13314443</v>
+        <v>3831251.075694031</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011152464563706e-06</v>
+        <v>1.823347172669401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.85277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3323113.580788209</v>
+        <v>3465601.850224305</v>
       </c>
     </row>
     <row r="3">
@@ -12402,28 +12402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1465.812816966738</v>
+        <v>1542.67798785597</v>
       </c>
       <c r="AB3" t="n">
-        <v>2005.589763271401</v>
+        <v>2110.760081134059</v>
       </c>
       <c r="AC3" t="n">
-        <v>1814.17909112769</v>
+        <v>1909.312101461004</v>
       </c>
       <c r="AD3" t="n">
-        <v>1465812.816966738</v>
+        <v>1542677.98785597</v>
       </c>
       <c r="AE3" t="n">
-        <v>2005589.763271401</v>
+        <v>2110760.081134059</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40584555213176e-06</v>
+        <v>2.535072209704138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1814179.09112769</v>
+        <v>1909312.101461004</v>
       </c>
     </row>
     <row r="4">
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1188.905579796853</v>
+        <v>1256.077352978911</v>
       </c>
       <c r="AB4" t="n">
-        <v>1626.713065090443</v>
+        <v>1718.62044856762</v>
       </c>
       <c r="AC4" t="n">
-        <v>1471.461853264336</v>
+        <v>1554.597725055275</v>
       </c>
       <c r="AD4" t="n">
-        <v>1188905.579796853</v>
+        <v>1256077.352978911</v>
       </c>
       <c r="AE4" t="n">
-        <v>1626713.065090443</v>
+        <v>1718620.44856762</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546159660650512e-06</v>
+        <v>2.788091751286015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.29027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1471461.853264336</v>
+        <v>1554597.725055275</v>
       </c>
     </row>
     <row r="5">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1091.797616116293</v>
+        <v>1168.492105296382</v>
       </c>
       <c r="AB5" t="n">
-        <v>1493.8456650817</v>
+        <v>1598.782448699963</v>
       </c>
       <c r="AC5" t="n">
-        <v>1351.275131431861</v>
+        <v>1446.196895701298</v>
       </c>
       <c r="AD5" t="n">
-        <v>1091797.616116293</v>
+        <v>1168492.105296382</v>
       </c>
       <c r="AE5" t="n">
-        <v>1493845.6650817</v>
+        <v>1598782.448699963</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.591181080957549e-06</v>
+        <v>2.869276025965914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.88611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1351275.131431861</v>
+        <v>1446196.895701298</v>
       </c>
     </row>
     <row r="6">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1095.532113802641</v>
+        <v>1172.22660298273</v>
       </c>
       <c r="AB6" t="n">
-        <v>1498.955369570572</v>
+        <v>1603.892153188835</v>
       </c>
       <c r="AC6" t="n">
-        <v>1355.89717289583</v>
+        <v>1450.818937165267</v>
       </c>
       <c r="AD6" t="n">
-        <v>1095532.113802641</v>
+        <v>1172226.60298273</v>
       </c>
       <c r="AE6" t="n">
-        <v>1498955.369570572</v>
+        <v>1603892.153188834</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591499253539224e-06</v>
+        <v>2.869849766423016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.88333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1355897.17289583</v>
+        <v>1450818.937165267</v>
       </c>
     </row>
     <row r="7">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1102.26815745444</v>
+        <v>1178.962646634529</v>
       </c>
       <c r="AB7" t="n">
-        <v>1508.171921668235</v>
+        <v>1613.108705286498</v>
       </c>
       <c r="AC7" t="n">
-        <v>1364.234110196804</v>
+        <v>1459.155874466241</v>
       </c>
       <c r="AD7" t="n">
-        <v>1102268.15745444</v>
+        <v>1178962.646634529</v>
       </c>
       <c r="AE7" t="n">
-        <v>1508171.921668235</v>
+        <v>1613108.705286498</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591340167248387e-06</v>
+        <v>2.869562896194465e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.88472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1364234.110196804</v>
+        <v>1459155.874466241</v>
       </c>
     </row>
   </sheetData>
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1795.710902787186</v>
+        <v>1888.142766927376</v>
       </c>
       <c r="AB2" t="n">
-        <v>2456.970878367309</v>
+        <v>2583.440232689966</v>
       </c>
       <c r="AC2" t="n">
-        <v>2222.481026116217</v>
+        <v>2336.880322763174</v>
       </c>
       <c r="AD2" t="n">
-        <v>1795710.902787186</v>
+        <v>1888142.766927376</v>
       </c>
       <c r="AE2" t="n">
-        <v>2456970.878367309</v>
+        <v>2583440.232689966</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221486591538542e-06</v>
+        <v>2.278903540492505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.84305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2222481.026116217</v>
+        <v>2336880.322763174</v>
       </c>
     </row>
     <row r="3">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1086.212977482381</v>
+        <v>1160.141400623619</v>
       </c>
       <c r="AB3" t="n">
-        <v>1486.204516125912</v>
+        <v>1587.356646159599</v>
       </c>
       <c r="AC3" t="n">
-        <v>1344.363243007994</v>
+        <v>1435.861555719172</v>
       </c>
       <c r="AD3" t="n">
-        <v>1086212.977482381</v>
+        <v>1160141.400623619</v>
       </c>
       <c r="AE3" t="n">
-        <v>1486204.516125912</v>
+        <v>1587356.646159599</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.56716845695021e-06</v>
+        <v>2.923835406652777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.68611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1344363.243007994</v>
+        <v>1435861.555719172</v>
       </c>
     </row>
     <row r="4">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1013.205757180825</v>
+        <v>1077.882549331138</v>
       </c>
       <c r="AB4" t="n">
-        <v>1386.312816458081</v>
+        <v>1474.80645681683</v>
       </c>
       <c r="AC4" t="n">
-        <v>1254.005066957579</v>
+        <v>1334.052998482093</v>
       </c>
       <c r="AD4" t="n">
-        <v>1013205.757180825</v>
+        <v>1077882.549331138</v>
       </c>
       <c r="AE4" t="n">
-        <v>1386312.81645808</v>
+        <v>1474806.45681683</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>3.013495157940639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>1254005.066957579</v>
+        <v>1334052.998482093</v>
       </c>
     </row>
     <row r="5">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1020.307605233735</v>
+        <v>1084.984397384048</v>
       </c>
       <c r="AB5" t="n">
-        <v>1396.029878275496</v>
+        <v>1484.523518634245</v>
       </c>
       <c r="AC5" t="n">
-        <v>1262.794746033122</v>
+        <v>1342.842677557637</v>
       </c>
       <c r="AD5" t="n">
-        <v>1020307.605233735</v>
+        <v>1084984.397384048</v>
       </c>
       <c r="AE5" t="n">
-        <v>1396029.878275496</v>
+        <v>1484523.518634245</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>3.013495157940639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>1262794.746033122</v>
+        <v>1342842.677557637</v>
       </c>
     </row>
   </sheetData>
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1294.557155971636</v>
+        <v>1375.173218935498</v>
       </c>
       <c r="AB2" t="n">
-        <v>1771.270212631363</v>
+        <v>1881.572666508211</v>
       </c>
       <c r="AC2" t="n">
-        <v>1602.222669531182</v>
+        <v>1701.99801202049</v>
       </c>
       <c r="AD2" t="n">
-        <v>1294557.155971636</v>
+        <v>1375173.218935498</v>
       </c>
       <c r="AE2" t="n">
-        <v>1771270.212631363</v>
+        <v>1881572.666508211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400539995034371e-06</v>
+        <v>2.693290347526917e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>1602222.669531182</v>
+        <v>1701998.01202049</v>
       </c>
     </row>
     <row r="3">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>952.7406318164009</v>
+        <v>1024.389872133771</v>
       </c>
       <c r="AB3" t="n">
-        <v>1303.58176440141</v>
+        <v>1401.61541594503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1179.169750395436</v>
+        <v>1267.847207826827</v>
       </c>
       <c r="AD3" t="n">
-        <v>952740.6318164009</v>
+        <v>1024389.872133771</v>
       </c>
       <c r="AE3" t="n">
-        <v>1303581.76440141</v>
+        <v>1401615.41594503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.61602087309535e-06</v>
+        <v>3.107668066846543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1179169.750395436</v>
+        <v>1267847.207826827</v>
       </c>
     </row>
     <row r="4">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>957.618742158685</v>
+        <v>1029.267982476055</v>
       </c>
       <c r="AB4" t="n">
-        <v>1310.256210178762</v>
+        <v>1408.289861722383</v>
       </c>
       <c r="AC4" t="n">
-        <v>1185.207196435442</v>
+        <v>1273.884653866833</v>
       </c>
       <c r="AD4" t="n">
-        <v>957618.742158685</v>
+        <v>1029267.982476055</v>
       </c>
       <c r="AE4" t="n">
-        <v>1310256.210178762</v>
+        <v>1408289.861722383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618420819231272e-06</v>
+        <v>3.112283252264581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.71111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1185207.196435442</v>
+        <v>1273884.653866833</v>
       </c>
     </row>
   </sheetData>
@@ -24940,28 +24940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.5654613128285</v>
+        <v>954.0987212091806</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.092023740852</v>
+        <v>1305.439962223287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.366048141776</v>
+        <v>1180.85060442519</v>
       </c>
       <c r="AD2" t="n">
-        <v>878565.4613128285</v>
+        <v>954098.7212091805</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202092.023740852</v>
+        <v>1305439.962223287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.532829206364199e-06</v>
+        <v>3.161612480811788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087366.048141776</v>
+        <v>1180850.60442519</v>
       </c>
     </row>
     <row r="3">
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.6182460164938</v>
+        <v>965.151505912846</v>
       </c>
       <c r="AB3" t="n">
-        <v>1217.214931386854</v>
+        <v>1320.562869869288</v>
       </c>
       <c r="AC3" t="n">
-        <v>1101.045646707178</v>
+        <v>1194.530202990591</v>
       </c>
       <c r="AD3" t="n">
-        <v>889618.2460164938</v>
+        <v>965151.505912846</v>
       </c>
       <c r="AE3" t="n">
-        <v>1217214.931386854</v>
+        <v>1320562.869869288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533565170453199e-06</v>
+        <v>3.163130479842306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.66388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1101045.646707178</v>
+        <v>1194530.202990591</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3869.750705429983</v>
+        <v>3998.413050841828</v>
       </c>
       <c r="AB2" t="n">
-        <v>5294.763636521821</v>
+        <v>5470.80513369639</v>
       </c>
       <c r="AC2" t="n">
-        <v>4789.438826299416</v>
+        <v>4948.67917005943</v>
       </c>
       <c r="AD2" t="n">
-        <v>3869750.705429983</v>
+        <v>3998413.050841828</v>
       </c>
       <c r="AE2" t="n">
-        <v>5294763.636521821</v>
+        <v>5470805.13369639</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.405903616508216e-07</v>
+        <v>1.476884106000429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>4789438.826299416</v>
+        <v>4948679.17005943</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1850.236491242041</v>
+        <v>1939.343184119156</v>
       </c>
       <c r="AB3" t="n">
-        <v>2531.575193990432</v>
+        <v>2653.494902294747</v>
       </c>
       <c r="AC3" t="n">
-        <v>2289.965210564085</v>
+        <v>2400.249073023221</v>
       </c>
       <c r="AD3" t="n">
-        <v>1850236.491242041</v>
+        <v>1939343.184119156</v>
       </c>
       <c r="AE3" t="n">
-        <v>2531575.193990432</v>
+        <v>2653494.902294747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273425925868973e-06</v>
+        <v>2.237359117931457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.78194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2289965.210564085</v>
+        <v>2400249.073023221</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1478.605874746947</v>
+        <v>1557.802341653875</v>
       </c>
       <c r="AB4" t="n">
-        <v>2023.09378931616</v>
+        <v>2131.453889239751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1830.012557493792</v>
+        <v>1928.03092156503</v>
       </c>
       <c r="AD4" t="n">
-        <v>1478605.874746947</v>
+        <v>1557802.341653875</v>
       </c>
       <c r="AE4" t="n">
-        <v>2023093.78931616</v>
+        <v>2131453.889239751</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429295967302669e-06</v>
+        <v>2.511216632004023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1830012.557493791</v>
+        <v>1928030.92156503</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1302.690518789391</v>
+        <v>1371.976849234683</v>
       </c>
       <c r="AB5" t="n">
-        <v>1782.398638457259</v>
+        <v>1877.199252469675</v>
       </c>
       <c r="AC5" t="n">
-        <v>1612.289014015098</v>
+        <v>1698.041990479667</v>
       </c>
       <c r="AD5" t="n">
-        <v>1302690.518789391</v>
+        <v>1371976.849234683</v>
       </c>
       <c r="AE5" t="n">
-        <v>1782398.638457259</v>
+        <v>1877199.252469675</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512539493872886e-06</v>
+        <v>2.657472224415927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.12916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1612289.014015099</v>
+        <v>1698041.990479667</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1193.312783037411</v>
+        <v>1262.684364828723</v>
       </c>
       <c r="AB6" t="n">
-        <v>1632.74319499626</v>
+        <v>1727.660453661325</v>
       </c>
       <c r="AC6" t="n">
-        <v>1476.916476035283</v>
+        <v>1562.774964750563</v>
       </c>
       <c r="AD6" t="n">
-        <v>1193312.783037412</v>
+        <v>1262684.364828723</v>
       </c>
       <c r="AE6" t="n">
-        <v>1632743.19499626</v>
+        <v>1727660.453661325</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555315280169596e-06</v>
+        <v>2.732627593529623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.74166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1476916.476035282</v>
+        <v>1562774.964750563</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1178.46691067463</v>
+        <v>1247.838492465941</v>
       </c>
       <c r="AB7" t="n">
-        <v>1612.430417475837</v>
+        <v>1707.347676140902</v>
       </c>
       <c r="AC7" t="n">
-        <v>1458.542321492247</v>
+        <v>1544.400810207528</v>
       </c>
       <c r="AD7" t="n">
-        <v>1178466.91067463</v>
+        <v>1247838.492465941</v>
       </c>
       <c r="AE7" t="n">
-        <v>1612430.417475837</v>
+        <v>1707347.676140902</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.56331650638337e-06</v>
+        <v>2.746685432356645e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.66944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1458542.321492247</v>
+        <v>1544400.810207528</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1183.89196166848</v>
+        <v>1253.263543459791</v>
       </c>
       <c r="AB8" t="n">
-        <v>1619.853211581981</v>
+        <v>1714.770470247046</v>
       </c>
       <c r="AC8" t="n">
-        <v>1465.256694546857</v>
+        <v>1551.115183262138</v>
       </c>
       <c r="AD8" t="n">
-        <v>1183891.96166848</v>
+        <v>1253263.543459791</v>
       </c>
       <c r="AE8" t="n">
-        <v>1619853.211581981</v>
+        <v>1714770.470247046</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.56347037611825e-06</v>
+        <v>2.746955775411011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.66944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1465256.694546857</v>
+        <v>1551115.183262138</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6302.227265720474</v>
+        <v>6476.440999142396</v>
       </c>
       <c r="AB2" t="n">
-        <v>8622.985379603511</v>
+        <v>8861.352295438881</v>
       </c>
       <c r="AC2" t="n">
-        <v>7800.019757409816</v>
+        <v>8015.637269347917</v>
       </c>
       <c r="AD2" t="n">
-        <v>6302227.265720474</v>
+        <v>6476440.999142396</v>
       </c>
       <c r="AE2" t="n">
-        <v>8622985.379603511</v>
+        <v>8861352.29543888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.485494827703249e-07</v>
+        <v>1.108947339629281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.75277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>7800019.757409816</v>
+        <v>8015637.269347917</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2418.90137175834</v>
+        <v>2511.137281364061</v>
       </c>
       <c r="AB3" t="n">
-        <v>3309.647571236948</v>
+        <v>3435.848811920646</v>
       </c>
       <c r="AC3" t="n">
-        <v>2993.77945215751</v>
+        <v>3107.936223554904</v>
       </c>
       <c r="AD3" t="n">
-        <v>2418901.37175834</v>
+        <v>2511137.28136406</v>
       </c>
       <c r="AE3" t="n">
-        <v>3309647.571236948</v>
+        <v>3435848.811920646</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123915198765218e-06</v>
+        <v>1.921769738086408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.32222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2993779.45215751</v>
+        <v>3107936.223554904</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1872.969309292343</v>
+        <v>1965.11978853494</v>
       </c>
       <c r="AB4" t="n">
-        <v>2562.679238548007</v>
+        <v>2688.763589639951</v>
       </c>
       <c r="AC4" t="n">
-        <v>2318.100728763886</v>
+        <v>2432.151766348112</v>
       </c>
       <c r="AD4" t="n">
-        <v>1872969.309292343</v>
+        <v>1965119.78853494</v>
       </c>
       <c r="AE4" t="n">
-        <v>2562679.238548007</v>
+        <v>2688763.589639951</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297692060632346e-06</v>
+        <v>2.218908805769426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.86944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>2318100.728763886</v>
+        <v>2432151.766348112</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1641.459812716404</v>
+        <v>1723.437726041157</v>
       </c>
       <c r="AB5" t="n">
-        <v>2245.917731854649</v>
+        <v>2358.083529475864</v>
       </c>
       <c r="AC5" t="n">
-        <v>2031.570495691775</v>
+        <v>2133.031347013707</v>
       </c>
       <c r="AD5" t="n">
-        <v>1641459.812716404</v>
+        <v>1723437.726041157</v>
       </c>
       <c r="AE5" t="n">
-        <v>2245917.731854649</v>
+        <v>2358083.529475864</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.390363168709953e-06</v>
+        <v>2.377366073091854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2031570.495691775</v>
+        <v>2133031.347013707</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1506.20123843632</v>
+        <v>1577.921334497208</v>
       </c>
       <c r="AB6" t="n">
-        <v>2060.850983337485</v>
+        <v>2158.981582835322</v>
       </c>
       <c r="AC6" t="n">
-        <v>1864.166257910276</v>
+        <v>1952.931410719201</v>
       </c>
       <c r="AD6" t="n">
-        <v>1506201.23843632</v>
+        <v>1577921.334497208</v>
       </c>
       <c r="AE6" t="n">
-        <v>2060850.983337485</v>
+        <v>2158981.582835322</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.447300297512835e-06</v>
+        <v>2.474722218134754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1864166.257910276</v>
+        <v>1952931.410719201</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1392.752439824521</v>
+        <v>1464.55778723143</v>
       </c>
       <c r="AB7" t="n">
-        <v>1905.625332069061</v>
+        <v>2003.872576219548</v>
       </c>
       <c r="AC7" t="n">
-        <v>1723.755124938341</v>
+        <v>1812.625789997978</v>
       </c>
       <c r="AD7" t="n">
-        <v>1392752.439824521</v>
+        <v>1464557.787231429</v>
       </c>
       <c r="AE7" t="n">
-        <v>1905625.332069061</v>
+        <v>2003872.576219548</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.488075585066982e-06</v>
+        <v>2.544443415756623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.83888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1723755.124938341</v>
+        <v>1812625.789997978</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1317.063983949289</v>
+        <v>1388.869331356198</v>
       </c>
       <c r="AB8" t="n">
-        <v>1802.065047601561</v>
+        <v>1900.312291752048</v>
       </c>
       <c r="AC8" t="n">
-        <v>1630.078488672647</v>
+        <v>1718.949153732284</v>
       </c>
       <c r="AD8" t="n">
-        <v>1317063.983949289</v>
+        <v>1388869.331356198</v>
       </c>
       <c r="AE8" t="n">
-        <v>1802065.047601562</v>
+        <v>1900312.291752048</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514320042874561e-06</v>
+        <v>2.589318513862334e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>1630078.488672647</v>
+        <v>1718949.153732284</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1291.500391147607</v>
+        <v>1363.305738554516</v>
       </c>
       <c r="AB9" t="n">
-        <v>1767.087812144181</v>
+        <v>1865.335056294667</v>
       </c>
       <c r="AC9" t="n">
-        <v>1598.43943147646</v>
+        <v>1687.310096536097</v>
       </c>
       <c r="AD9" t="n">
-        <v>1291500.391147607</v>
+        <v>1363305.738554516</v>
       </c>
       <c r="AE9" t="n">
-        <v>1767087.812144181</v>
+        <v>1865335.056294667</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522919921704162e-06</v>
+        <v>2.604023348269855e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.52222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1598439.43147646</v>
+        <v>1687310.096536097</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1293.098589593462</v>
+        <v>1364.903937000371</v>
       </c>
       <c r="AB10" t="n">
-        <v>1769.274537765338</v>
+        <v>1867.521781915825</v>
       </c>
       <c r="AC10" t="n">
-        <v>1600.417459073424</v>
+        <v>1689.28812413306</v>
       </c>
       <c r="AD10" t="n">
-        <v>1293098.589593462</v>
+        <v>1364903.937000371</v>
       </c>
       <c r="AE10" t="n">
-        <v>1769274.537765338</v>
+        <v>1867521.781915825</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52425438566048e-06</v>
+        <v>2.606305132919298e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.51111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1600417.459073423</v>
+        <v>1689288.12413306</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1299.309134987134</v>
+        <v>1371.114482394043</v>
       </c>
       <c r="AB11" t="n">
-        <v>1777.772079962886</v>
+        <v>1876.019324113372</v>
       </c>
       <c r="AC11" t="n">
-        <v>1608.104007770012</v>
+        <v>1696.974672829649</v>
       </c>
       <c r="AD11" t="n">
-        <v>1299309.134987134</v>
+        <v>1371114.482394043</v>
       </c>
       <c r="AE11" t="n">
-        <v>1777772.079962886</v>
+        <v>1876019.324113372</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.524106111887556e-06</v>
+        <v>2.606051601291583e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.51111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1608104.007770012</v>
+        <v>1696974.672829649</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>872.2221086456896</v>
+        <v>953.5160524585904</v>
       </c>
       <c r="AB2" t="n">
-        <v>1193.412768772704</v>
+        <v>1304.642729133198</v>
       </c>
       <c r="AC2" t="n">
-        <v>1079.515129086377</v>
+        <v>1180.129458142295</v>
       </c>
       <c r="AD2" t="n">
-        <v>872222.1086456896</v>
+        <v>953516.0524585904</v>
       </c>
       <c r="AE2" t="n">
-        <v>1193412.768772704</v>
+        <v>1304642.729133198</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408537367580212e-06</v>
+        <v>3.019144337600454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1079515.129086377</v>
+        <v>1180129.458142295</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2068.4347543952</v>
+        <v>2162.217194145994</v>
       </c>
       <c r="AB2" t="n">
-        <v>2830.123683864569</v>
+        <v>2958.440955320845</v>
       </c>
       <c r="AC2" t="n">
-        <v>2560.020651580072</v>
+        <v>2676.091502742982</v>
       </c>
       <c r="AD2" t="n">
-        <v>2068434.7543952</v>
+        <v>2162217.194145994</v>
       </c>
       <c r="AE2" t="n">
-        <v>2830123.683864569</v>
+        <v>2958440.955320845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145547708795186e-06</v>
+        <v>2.110594369198124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2560020.651580072</v>
+        <v>2676091.502742982</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1205.710153145081</v>
+        <v>1280.650764091144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1649.705823710941</v>
+        <v>1752.242873753764</v>
       </c>
       <c r="AC3" t="n">
-        <v>1492.260215272634</v>
+        <v>1585.011273171023</v>
       </c>
       <c r="AD3" t="n">
-        <v>1205710.153145081</v>
+        <v>1280650.764091144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1649705.823710941</v>
+        <v>1752242.873753764</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512318935303239e-06</v>
+        <v>2.786345609856568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1492260.215272634</v>
+        <v>1585011.273171023</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1045.409884779842</v>
+        <v>1110.972341259378</v>
       </c>
       <c r="AB4" t="n">
-        <v>1430.375924584895</v>
+        <v>1520.081369951638</v>
       </c>
       <c r="AC4" t="n">
-        <v>1293.862853887731</v>
+        <v>1375.006937451056</v>
       </c>
       <c r="AD4" t="n">
-        <v>1045409.884779842</v>
+        <v>1110972.341259378</v>
       </c>
       <c r="AE4" t="n">
-        <v>1430375.924584895</v>
+        <v>1520081.369951638</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605563089504529e-06</v>
+        <v>2.958141673265282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.12638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1293862.853887731</v>
+        <v>1375006.937451056</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1046.934676481972</v>
+        <v>1112.497132961507</v>
       </c>
       <c r="AB5" t="n">
-        <v>1432.46221186081</v>
+        <v>1522.167657227554</v>
       </c>
       <c r="AC5" t="n">
-        <v>1295.750028834155</v>
+        <v>1376.89411239748</v>
       </c>
       <c r="AD5" t="n">
-        <v>1046934.676481972</v>
+        <v>1112497.132961507</v>
       </c>
       <c r="AE5" t="n">
-        <v>1432462.21186081</v>
+        <v>1522167.657227554</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.608992384142405e-06</v>
+        <v>2.964459917278562e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.09583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1295750.028834155</v>
+        <v>1376894.11239748</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3036.502401500612</v>
+        <v>3152.98223153687</v>
       </c>
       <c r="AB2" t="n">
-        <v>4154.676546764836</v>
+        <v>4314.049388947879</v>
       </c>
       <c r="AC2" t="n">
-        <v>3758.160048266599</v>
+        <v>3902.322570072875</v>
       </c>
       <c r="AD2" t="n">
-        <v>3036502.401500612</v>
+        <v>3152982.23153687</v>
       </c>
       <c r="AE2" t="n">
-        <v>4154676.546764835</v>
+        <v>4314049.388947879</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.508825976439761e-07</v>
+        <v>1.698682366913959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3758160.048266598</v>
+        <v>3902322.570072875</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1596.979146582872</v>
+        <v>1674.60400916407</v>
       </c>
       <c r="AB3" t="n">
-        <v>2185.057322102256</v>
+        <v>2291.267083653095</v>
       </c>
       <c r="AC3" t="n">
-        <v>1976.518518028029</v>
+        <v>2072.591769002792</v>
       </c>
       <c r="AD3" t="n">
-        <v>1596979.146582872</v>
+        <v>1674604.00916407</v>
       </c>
       <c r="AE3" t="n">
-        <v>2185057.322102256</v>
+        <v>2291267.083653095</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359504269482054e-06</v>
+        <v>2.428655163145669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1976518.518028029</v>
+        <v>2072591.769002792</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1287.775306879593</v>
+        <v>1355.856997420482</v>
       </c>
       <c r="AB4" t="n">
-        <v>1761.990987509565</v>
+        <v>1855.143360059815</v>
       </c>
       <c r="AC4" t="n">
-        <v>1593.829040631534</v>
+        <v>1678.091081485764</v>
       </c>
       <c r="AD4" t="n">
-        <v>1287775.306879593</v>
+        <v>1355856.997420482</v>
       </c>
       <c r="AE4" t="n">
-        <v>1761990.987509564</v>
+        <v>1855143.360059815</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.504935222329388e-06</v>
+        <v>2.68845694710655e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.50972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1593829.040631534</v>
+        <v>1678091.081485764</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138.562717021984</v>
+        <v>1216.10214924006</v>
       </c>
       <c r="AB5" t="n">
-        <v>1557.83173927151</v>
+        <v>1663.924611230603</v>
       </c>
       <c r="AC5" t="n">
-        <v>1409.154464506015</v>
+        <v>1505.121981667613</v>
       </c>
       <c r="AD5" t="n">
-        <v>1138562.717021984</v>
+        <v>1216102.14924006</v>
       </c>
       <c r="AE5" t="n">
-        <v>1557831.73927151</v>
+        <v>1663924.611230603</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.572383739920206e-06</v>
+        <v>2.808948801505706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1409154.464506015</v>
+        <v>1505121.981667613</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1119.868522131224</v>
+        <v>1187.86487181754</v>
       </c>
       <c r="AB6" t="n">
-        <v>1532.253517092299</v>
+        <v>1625.289122520351</v>
       </c>
       <c r="AC6" t="n">
-        <v>1386.017391952327</v>
+        <v>1470.173809774619</v>
       </c>
       <c r="AD6" t="n">
-        <v>1119868.522131224</v>
+        <v>1187864.87181754</v>
       </c>
       <c r="AE6" t="n">
-        <v>1532253.517092299</v>
+        <v>1625289.122520351</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582603212282451e-06</v>
+        <v>2.827205143081335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.79722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1386017.391952327</v>
+        <v>1470173.809774619</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1124.811673582949</v>
+        <v>1192.808023269266</v>
       </c>
       <c r="AB7" t="n">
-        <v>1539.016954985001</v>
+        <v>1632.052560413053</v>
       </c>
       <c r="AC7" t="n">
-        <v>1392.135336825094</v>
+        <v>1476.291754647385</v>
       </c>
       <c r="AD7" t="n">
-        <v>1124811.673582949</v>
+        <v>1192808.023269266</v>
       </c>
       <c r="AE7" t="n">
-        <v>1539016.954985001</v>
+        <v>1632052.560413053</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583703770844539e-06</v>
+        <v>2.829171210635634e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.78888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1392135.336825094</v>
+        <v>1476291.754647385</v>
       </c>
     </row>
   </sheetData>
